--- a/Spatial/PDFs/figure_speed_AD_Ctrl_Data.xlsx
+++ b/Spatial/PDFs/figure_speed_AD_Ctrl_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6B402B1-B82E-48BE-A66D-2C2B0E6D6A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE49D8F-DA7B-4482-8B2B-60C365F55EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{314274E4-B274-4F44-87A6-42F131DCF0BB}"/>
   </bookViews>
